--- a/biology/Médecine/Doppler_(médecine)/Doppler_(médecine).xlsx
+++ b/biology/Médecine/Doppler_(médecine)/Doppler_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Doppler_(m%C3%A9decine)</t>
+          <t>Doppler_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le doppler est une fonction du radiographe (le radiographe est un matériel de médecine) utilisant l'effet Doppler des ultrasons.
 En 1958, le doppler continu (un cristal émettant et recevant en continu des ultrasons) permit l'étude de la circulation sanguine dans les vaisseaux (Rushmer). Le premier doppler pulsé (émission de l'ultrason en discontinu et fenêtre d'écoute temporelle fixée, permettant d'analyser la vitesse du sang à une profondeur définie) a été introduit par Baker en 1970.
